--- a/Envio de WhatsApp/Numero_mensaje_whatsapp.xlsx
+++ b/Envio de WhatsApp/Numero_mensaje_whatsapp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\proyectos empresa\Envio de WhatsApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\proyectos empresa\IMGWHATS\Envio de WhatsApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,73 +24,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Gerson</t>
-  </si>
-  <si>
-    <t>Paola</t>
-  </si>
-  <si>
-    <t>Melqui</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Bla</t>
-  </si>
-  <si>
-    <t>+573194221498</t>
-  </si>
-  <si>
-    <t>+573219155489</t>
-  </si>
-  <si>
-    <t>+573176794454</t>
-  </si>
-  <si>
-    <t>+573192754077</t>
-  </si>
-  <si>
-    <t>+573228813094</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>ferreteria paola</t>
-  </si>
-  <si>
-    <t>ferreteria melqui</t>
-  </si>
-  <si>
-    <t>ferreteria william</t>
-  </si>
-  <si>
-    <t>ferreteria bla</t>
-  </si>
-  <si>
-    <t>ferreteria gerson</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+  <si>
+    <t>Cod</t>
+  </si>
+  <si>
+    <t>Ferreteria</t>
+  </si>
+  <si>
+    <t>responsable</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>Nfactura</t>
+  </si>
+  <si>
+    <t>Valor factura</t>
+  </si>
+  <si>
+    <t>Derwin</t>
+  </si>
+  <si>
+    <t>Ferrevidrio Raul</t>
+  </si>
+  <si>
+    <t>168800.00</t>
+  </si>
+  <si>
+    <t>Ferrelectricos el Brillante</t>
+  </si>
+  <si>
+    <t>102150.00</t>
+  </si>
+  <si>
+    <t>Ferreteria JGB</t>
+  </si>
+  <si>
+    <t>274550.00</t>
+  </si>
+  <si>
+    <t>Ferreteria GYY</t>
+  </si>
+  <si>
+    <t>263600.00</t>
+  </si>
+  <si>
+    <t>Ferreteria Ecoferr</t>
+  </si>
+  <si>
+    <t>539775.00</t>
+  </si>
+  <si>
+    <t>Ferrelectricos mundial</t>
+  </si>
+  <si>
+    <t>101250.00</t>
+  </si>
+  <si>
+    <t>Ferrelecto</t>
+  </si>
+  <si>
+    <t>323454.00</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>3128026914</t>
+  </si>
+  <si>
+    <t>3213616393</t>
+  </si>
+  <si>
+    <t>3118807384</t>
+  </si>
+  <si>
+    <t>3144277255</t>
+  </si>
+  <si>
+    <t>3114438952</t>
+  </si>
+  <si>
+    <t>3222060300</t>
+  </si>
+  <si>
+    <t>3026477698</t>
+  </si>
+  <si>
+    <t>7890</t>
+  </si>
+  <si>
+    <t>7891</t>
+  </si>
+  <si>
+    <t>7893</t>
+  </si>
+  <si>
+    <t>7894</t>
+  </si>
+  <si>
+    <t>7895</t>
+  </si>
+  <si>
+    <t>7897</t>
+  </si>
+  <si>
+    <t>7902</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +164,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,9 +199,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,89 +488,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Envio de WhatsApp/Numero_mensaje_whatsapp.xlsx
+++ b/Envio de WhatsApp/Numero_mensaje_whatsapp.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\proyectos empresa\IMGWHATS\Envio de WhatsApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\WhappClone\IMGWHATS\Envio de WhatsApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="20460" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Cod</t>
   </si>
@@ -44,112 +44,40 @@
     <t>Valor factura</t>
   </si>
   <si>
-    <t>Derwin</t>
-  </si>
-  <si>
-    <t>Ferrevidrio Raul</t>
-  </si>
-  <si>
-    <t>168800.00</t>
-  </si>
-  <si>
-    <t>Ferrelectricos el Brillante</t>
-  </si>
-  <si>
-    <t>102150.00</t>
-  </si>
-  <si>
-    <t>Ferreteria JGB</t>
-  </si>
-  <si>
-    <t>274550.00</t>
-  </si>
-  <si>
-    <t>Ferreteria GYY</t>
-  </si>
-  <si>
-    <t>263600.00</t>
-  </si>
-  <si>
-    <t>Ferreteria Ecoferr</t>
-  </si>
-  <si>
-    <t>539775.00</t>
-  </si>
-  <si>
-    <t>Ferrelectricos mundial</t>
-  </si>
-  <si>
-    <t>101250.00</t>
-  </si>
-  <si>
-    <t>Ferrelecto</t>
-  </si>
-  <si>
-    <t>323454.00</t>
-  </si>
-  <si>
-    <t>546</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>535</t>
-  </si>
-  <si>
-    <t>3128026914</t>
-  </si>
-  <si>
-    <t>3213616393</t>
-  </si>
-  <si>
-    <t>3118807384</t>
-  </si>
-  <si>
-    <t>3144277255</t>
-  </si>
-  <si>
-    <t>3114438952</t>
-  </si>
-  <si>
-    <t>3222060300</t>
-  </si>
-  <si>
-    <t>3026477698</t>
-  </si>
-  <si>
-    <t>7890</t>
-  </si>
-  <si>
-    <t>7891</t>
-  </si>
-  <si>
-    <t>7893</t>
-  </si>
-  <si>
-    <t>7894</t>
-  </si>
-  <si>
-    <t>7895</t>
-  </si>
-  <si>
-    <t>7897</t>
-  </si>
-  <si>
-    <t>7902</t>
+    <t>777</t>
+  </si>
+  <si>
+    <t>Ferreteria Marley</t>
+  </si>
+  <si>
+    <t>Gerson</t>
+  </si>
+  <si>
+    <t>Jesus Andres</t>
+  </si>
+  <si>
+    <t>3219155489</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>7777</t>
+  </si>
+  <si>
+    <t>794</t>
+  </si>
+  <si>
+    <t>Ferreteria jsjs</t>
+  </si>
+  <si>
+    <t>3187686326</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>7942</t>
   </si>
 </sst>
 </file>
@@ -491,7 +419,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,143 +451,73 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Envio de WhatsApp/Numero_mensaje_whatsapp.xlsx
+++ b/Envio de WhatsApp/Numero_mensaje_whatsapp.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="20460" windowHeight="7620"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="20460" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Cod</t>
   </si>
@@ -78,6 +79,54 @@
   </si>
   <si>
     <t>7942</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>Ferreteria 1</t>
+  </si>
+  <si>
+    <t>sebas</t>
+  </si>
+  <si>
+    <t>3227804602</t>
+  </si>
+  <si>
+    <t>121212</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>Ferreteria 2</t>
+  </si>
+  <si>
+    <t>Melqui</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>3176794454</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>asdasdfv</t>
+  </si>
+  <si>
+    <t>4545454545</t>
+  </si>
+  <si>
+    <t>3333</t>
+  </si>
+  <si>
+    <t>imagine</t>
   </si>
 </sst>
 </file>
@@ -419,7 +468,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,22 +539,64 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>

--- a/Envio de WhatsApp/Numero_mensaje_whatsapp.xlsx
+++ b/Envio de WhatsApp/Numero_mensaje_whatsapp.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="20460" windowHeight="7620"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="20460" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -468,7 +467,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Envio de WhatsApp/Numero_mensaje_whatsapp.xlsx
+++ b/Envio de WhatsApp/Numero_mensaje_whatsapp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\WhappClone\IMGWHATS\Envio de WhatsApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROGRAMACION\pythonxD\IMGWHATS\Envio de WhatsApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AA0CBC-48DA-4142-A86D-FB271AA18F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="20460" windowHeight="7620"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="20910" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Cod</t>
   </si>
@@ -126,12 +127,30 @@
   </si>
   <si>
     <t>imagine</t>
+  </si>
+  <si>
+    <t>Ferreteria 3</t>
+  </si>
+  <si>
+    <t>imagine2</t>
+  </si>
+  <si>
+    <t>4545</t>
+  </si>
+  <si>
+    <t>xD</t>
+  </si>
+  <si>
+    <t>212121</t>
+  </si>
+  <si>
+    <t>2121</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,11 +482,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,16 +617,44 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Envio de WhatsApp/Numero_mensaje_whatsapp.xlsx
+++ b/Envio de WhatsApp/Numero_mensaje_whatsapp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROGRAMACION\pythonxD\IMGWHATS\Envio de WhatsApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AA0CBC-48DA-4142-A86D-FB271AA18F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B637AC-5E3E-41AE-8F68-C4BEC65AE7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="20910" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Cod</t>
   </si>
@@ -114,24 +114,9 @@
     <t>3176794454</t>
   </si>
   <si>
-    <t>1212</t>
-  </si>
-  <si>
-    <t>asdasdfv</t>
-  </si>
-  <si>
     <t>4545454545</t>
   </si>
   <si>
-    <t>3333</t>
-  </si>
-  <si>
-    <t>imagine</t>
-  </si>
-  <si>
-    <t>Ferreteria 3</t>
-  </si>
-  <si>
     <t>imagine2</t>
   </si>
   <si>
@@ -145,6 +130,9 @@
   </si>
   <si>
     <t>2121</t>
+  </si>
+  <si>
+    <t>imagine1</t>
   </si>
 </sst>
 </file>
@@ -486,7 +474,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,62 +586,62 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Envio de WhatsApp/Numero_mensaje_whatsapp.xlsx
+++ b/Envio de WhatsApp/Numero_mensaje_whatsapp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROGRAMACION\pythonxD\IMGWHATS\Envio de WhatsApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B637AC-5E3E-41AE-8F68-C4BEC65AE7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2143B6E-8A37-4325-9E81-B939DDFD9D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="20910" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Cod</t>
   </si>
@@ -81,37 +81,7 @@
     <t>7942</t>
   </si>
   <si>
-    <t>666</t>
-  </si>
-  <si>
-    <t>Ferreteria 1</t>
-  </si>
-  <si>
-    <t>sebas</t>
-  </si>
-  <si>
-    <t>3227804602</t>
-  </si>
-  <si>
     <t>121212</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>Ferreteria 2</t>
-  </si>
-  <si>
-    <t>Melqui</t>
-  </si>
-  <si>
-    <t>2222</t>
-  </si>
-  <si>
-    <t>3176794454</t>
   </si>
   <si>
     <t>4545454545</t>
@@ -471,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,102 +516,42 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Envio de WhatsApp/Numero_mensaje_whatsapp.xlsx
+++ b/Envio de WhatsApp/Numero_mensaje_whatsapp.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Cod</t>
   </si>
@@ -47,48 +47,18 @@
     <t>Derwin</t>
   </si>
   <si>
-    <t>Ferrevidrio Raul</t>
-  </si>
-  <si>
     <t>168800.00</t>
   </si>
   <si>
-    <t>Ferrelectricos el Brillante</t>
-  </si>
-  <si>
     <t>102150.00</t>
   </si>
   <si>
-    <t>Ferreteria JGB</t>
-  </si>
-  <si>
     <t>274550.00</t>
   </si>
   <si>
-    <t>Ferreteria GYY</t>
-  </si>
-  <si>
     <t>263600.00</t>
   </si>
   <si>
-    <t>Ferreteria Ecoferr</t>
-  </si>
-  <si>
-    <t>539775.00</t>
-  </si>
-  <si>
-    <t>Ferrelectricos mundial</t>
-  </si>
-  <si>
-    <t>101250.00</t>
-  </si>
-  <si>
-    <t>Ferrelecto</t>
-  </si>
-  <si>
-    <t>323454.00</t>
-  </si>
-  <si>
     <t>546</t>
   </si>
   <si>
@@ -101,36 +71,6 @@
     <t>211</t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>535</t>
-  </si>
-  <si>
-    <t>3128026914</t>
-  </si>
-  <si>
-    <t>3213616393</t>
-  </si>
-  <si>
-    <t>3118807384</t>
-  </si>
-  <si>
-    <t>3144277255</t>
-  </si>
-  <si>
-    <t>3114438952</t>
-  </si>
-  <si>
-    <t>3222060300</t>
-  </si>
-  <si>
-    <t>3026477698</t>
-  </si>
-  <si>
     <t>7890</t>
   </si>
   <si>
@@ -143,13 +83,28 @@
     <t>7894</t>
   </si>
   <si>
-    <t>7895</t>
-  </si>
-  <si>
-    <t>7897</t>
-  </si>
-  <si>
-    <t>7902</t>
+    <t>Gerson</t>
+  </si>
+  <si>
+    <t>Gerson2</t>
+  </si>
+  <si>
+    <t>Melqui</t>
+  </si>
+  <si>
+    <t>william</t>
+  </si>
+  <si>
+    <t>3219155489</t>
+  </si>
+  <si>
+    <t>3196681137</t>
+  </si>
+  <si>
+    <t>3176794454</t>
+  </si>
+  <si>
+    <t>3192754077</t>
   </si>
 </sst>
 </file>
@@ -488,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,142 +478,82 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
